--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="28880" yWindow="740" windowWidth="28000" windowHeight="17360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>19
 deadline DISCUSSION + CCL</t>
@@ -181,13 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21
-write DESIGN
-read personalServer
-find papers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27
 deadline DESIGN
 prepare EVAL
@@ -208,56 +201,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24
-implement hiding +
-size constraints (maxZ?)
-write RELWORK</t>
+    <t>29
+prepare EVAL
+write INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+HAND-IN before 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21
+write DESIGN
+read
+find papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25
+find papers
 write RELWORK
 15:00 Juan meeting
 read</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>29
-prepare EVAL
-write INTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wednesday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thursday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saturday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tuesday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1
-HAND-IN before 15:00</t>
+    <t>28
+implement hiding +
+size constraints (maxZ?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24
+write DESIGN
+find papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,8 +680,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -686,25 +692,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" customHeight="1">
@@ -716,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5">
         <v>22</v>
@@ -724,30 +730,30 @@
     </row>
     <row r="3" spans="1:7" ht="68" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5">
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -848,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -871,7 +877,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28880" yWindow="740" windowWidth="28000" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="29560" yWindow="300" windowWidth="21920" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>19
 deadline DISCUSSION + CCL</t>
@@ -136,12 +136,6 @@
   <si>
     <t>3
 deadline RELWORK + INTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1
-write RELWORK
-rewrite DESIGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,13 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27
-deadline DESIGN
-prepare EVAL
-read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30
 prepare EVAL
 test run EVAL</t>
@@ -247,14 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25
-find papers
-write RELWORK
-15:00 Juan meeting
-read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>28
 implement hiding +
 size constraints (maxZ?)</t>
@@ -264,6 +243,33 @@
     <t>24
 write DESIGN
 find papers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25
+find papers
+write DESIGN
+15:00 Juan meeting
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+write RELWORK
+rewrite DESIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27
+deadline DESIGN
+prepare EVAL
+13 related work w. AU
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26
+result analysis w. charts (table?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,8 +686,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -692,25 +698,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" customHeight="1">
@@ -719,10 +725,10 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5">
         <v>22</v>
@@ -730,36 +736,36 @@
     </row>
     <row r="3" spans="1:7" ht="68" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5">
-        <v>26</v>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -782,13 +788,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5">
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
@@ -854,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29560" yWindow="300" windowWidth="21920" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-80" windowWidth="23360" windowHeight="17360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
+    <t>30
+prepare EVAL
+write intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31
+finalize EVAL
+write intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+write intro
+rewrite DESIGN
+test run EVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3
+deadline INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5
+write RELWORK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>19
 deadline DISCUSSION + CCL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,17 +96,6 @@
   <si>
     <t>29
 print</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4
-write SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31
-finalize EVAL
-write RELWORK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,11 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5
-finalize EVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12
 make VIDEO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,11 +144,6 @@
   <si>
     <t>18
 write DISCUSSION + CCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3
-deadline RELWORK + INTRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,12 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30
-prepare EVAL
-test run EVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23
 write DESIGN
 find papers
@@ -254,12 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1
-write RELWORK
-rewrite DESIGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27
 deadline DESIGN
 prepare EVAL
@@ -270,6 +266,11 @@
   <si>
     <t>26
 result analysis w. charts (table?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4
+finalize EVAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +688,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -725,7 +726,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>37</v>
@@ -745,10 +746,10 @@
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>38</v>
@@ -759,105 +760,105 @@
     </row>
     <row r="4" spans="1:7" ht="68" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6">
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="68" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="68" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="-80" windowWidth="23360" windowHeight="17360" tabRatio="500"/>
   </bookViews>
@@ -19,137 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>30
-prepare EVAL
-write intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31
-finalize EVAL
-write intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1
-write intro
-rewrite DESIGN
-test run EVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3
-deadline INTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5
-write RELWORK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19
-deadline DISCUSSION + CCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20
-rewrite SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21
-rewrite EVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22
-rewrite THEORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24
-rewrite DISCUSSION + CCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25
-finalize video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27
-rewrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28
-rewrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29
-print</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6
-run EVAL
-write SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7
-run EVAL
-write SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12
-make VIDEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11
-make VIDEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13
-analyze EVAL
-write EVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14
-deadline EVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15
-write THEORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17
-deadline THEORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18
-write DISCUSSION + CCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8
-write SYSTEM
-rewrite RELWORK + INTRO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>9
+write RELWORK
+analyze EVAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,9 +44,129 @@
         <sz val="10"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>deadline SYSTEM
+      <t>deadline RELWORK
 analyze EVAL</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11
+make VIDEO
+take pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7
+run EVAL
+rewrite INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13
+write SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14
+write SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15
+deadline SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16
+write EVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17
+deadline EVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30
+prepare EVAL
+write intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31
+finalize EVAL
+write intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+write intro
+rewrite DESIGN
+test run EVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3
+deadline INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19
+deadline DISCUSSION + CCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20
+rewrite SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21
+rewrite EVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22
+rewrite THEORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24
+rewrite DISCUSSION + CCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25
+finalize video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27
+rewrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28
+rewrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29
+print</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12
+make VIDEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18
+write DISCUSSION + CCL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,6 +265,24 @@
   <si>
     <t>4
 finalize EVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5
+finalize EVAL
+rewrite DESIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6
+run EVAL
+rewrite DESIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8
+write RELWORK
+analyze EVAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +700,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -699,25 +711,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" customHeight="1">
@@ -726,10 +738,10 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5">
         <v>22</v>
@@ -737,131 +749,131 @@
     </row>
     <row r="3" spans="1:7" ht="68" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="68" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6">
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="68" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -875,7 +887,6 @@
     <row r="14" spans="1:7" ht="68" hidden="1" customHeight="1"/>
     <row r="15" spans="1:7" ht="68" hidden="1" customHeight="1"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55905511811023623" right="0.55905511811023623" top="0.59055118110236227" bottom="0.61023622047244097" header="0.33070866141732286" footer="0"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t>9
-write RELWORK
-analyze EVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>10</t>
     </r>
@@ -50,20 +44,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11
-make VIDEO
-take pictures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7
 run EVAL
 rewrite INTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13
-write SYSTEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -280,7 +263,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>13
+write SYSTEM
+pictures with Mads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11
+make VIDEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8
+rewrite INTRO
+analyze EVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9
+rewrite DESIGN
 write RELWORK
 analyze EVAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,7 +701,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -711,25 +712,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" customHeight="1">
@@ -738,10 +739,10 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5">
         <v>22</v>
@@ -749,131 +750,131 @@
     </row>
     <row r="3" spans="1:7" ht="68" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="68" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6">
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="68" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
